--- a/Data-extracted/final/binding_energies/analysis/NiS2.xlsx
+++ b/Data-extracted/final/binding_energies/analysis/NiS2.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cooperunion-my.sharepoint.com/personal/andrew_kim_cooper_edu/Documents/Masters/Data_management/Data-extracted/final/binding_energies/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{8BECB3A6-9FCE-4021-B043-89E784EC3818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E229EE42-F0A7-4D52-B33F-8B0DD5C48B30}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{8BECB3A6-9FCE-4021-B043-89E784EC3818}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{466A4115-AC65-4556-92ED-56637A1EDC95}"/>
   <bookViews>
     <workbookView xWindow="-15855" yWindow="-6525" windowWidth="15960" windowHeight="12345" xr2:uid="{106007CB-2A85-4180-ABBB-ACF199D2C896}"/>
   </bookViews>
   <sheets>
     <sheet name="NiS2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
   <si>
     <t>NaPS</t>
   </si>
@@ -170,6 +183,9 @@
   </si>
   <si>
     <t>Comparison with Graphene_vdw</t>
+  </si>
+  <si>
+    <t>std</t>
   </si>
 </sst>
 </file>
@@ -1033,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF554E9-95BC-4761-8676-8FFAA2BFFFA1}">
   <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,6 +1633,9 @@
       <c r="D19" t="s">
         <v>20</v>
       </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
       <c r="G19" t="s">
         <v>0</v>
       </c>
@@ -1649,6 +1668,10 @@
         <f>AVERAGE(D12:D16)</f>
         <v>0.23745837227306721</v>
       </c>
+      <c r="E20">
+        <f>_xlfn.STDEV.P(D12:D16)</f>
+        <v>0.10280113881264163</v>
+      </c>
       <c r="G20" t="s">
         <v>8</v>
       </c>
@@ -1770,12 +1793,16 @@
         <v>363.62794924514554</v>
       </c>
       <c r="C24">
-        <f t="shared" ref="C24:D24" si="3">C20*2625.5</f>
+        <f t="shared" ref="C24:E24" si="3">C20*2625.5</f>
         <v>975.31318774678721</v>
       </c>
       <c r="D24">
         <f t="shared" si="3"/>
         <v>623.44695640293799</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>269.90438995259063</v>
       </c>
       <c r="G24" t="s">
         <v>16</v>
